--- a/cocoFarmTable/cocoFarm TB specification.xlsx
+++ b/cocoFarmTable/cocoFarm TB specification.xlsx
@@ -302,17 +302,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>THUMB_LOC</t>
+          <t>THUMB_IMG</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>THUMB_LOC</t>
+          <t>THUMB_IMG</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>썸네일 위치 디렉토리 이름</t>
+          <t>썸네일 위치 디렉토리+파일 이름</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -321,7 +321,7 @@
         </is>
       </c>
       <c r="G5" s="1" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -340,7 +340,7 @@
         </is>
       </c>
       <c r="L5" s="1" t="n">
-        <v>100.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="6">
@@ -356,43 +356,45 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ISDEL</t>
+          <t>PW</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ISDEL</t>
+          <t>PW</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>삭제 확인 코드 - 외래키 null 안됨 기본값:0</t>
+          <t>계정 암호 null 안됨</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NCHAR</t>
         </is>
       </c>
       <c r="G6" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>1.0</v>
+        <v>60.0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0 </t>
-        </is>
-      </c>
-      <c r="K6"/>
+      <c r="J6"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L6" s="1" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="7">
@@ -408,29 +410,31 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TYPE_CODE</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TYPE_CODE</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>계정타입 - 외래키, null 안됨(식별관계)</t>
+          <t>사용자 이름 null 안됨</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G7" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>2.0</v>
+        <v>40.0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -438,9 +442,13 @@
         </is>
       </c>
       <c r="J7"/>
-      <c r="K7"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L7" s="1" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="8">
@@ -456,17 +464,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DETAILED_ADDR</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DETAILED_ADDR</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>세부주소</t>
+          <t>이메일</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -475,7 +483,7 @@
         </is>
       </c>
       <c r="G8" s="1" t="n">
-        <v>100.0</v>
+        <v>60.0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -494,7 +502,7 @@
         </is>
       </c>
       <c r="L8" s="1" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="9">
@@ -510,31 +518,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ADDR</t>
+          <t>PHONE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ADDR</t>
+          <t>PHONE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>주소 - 도 시 구 동 까지만, api 따름</t>
+          <t>전화번호</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G9" s="1" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>14.0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -542,13 +548,9 @@
         </is>
       </c>
       <c r="J9"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K9"/>
       <c r="L9" s="1" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -564,17 +566,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>POSTNUM</t>
+          <t>PHONE2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>POSTNUM</t>
+          <t>PHONE2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>우편번호</t>
+          <t>전화번호2</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -586,7 +588,7 @@
         <v>22.0</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -612,17 +614,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PHONE2</t>
+          <t>POSTNUM</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PHONE2</t>
+          <t>POSTNUM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>전화번호2</t>
+          <t>우편번호</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -634,7 +636,7 @@
         <v>22.0</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -660,26 +662,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PW</t>
+          <t>ADDR</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PW</t>
+          <t>ADDR</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>계정 암호 null 안됨</t>
+          <t>주소 - 도 시 구 동 까지만, api 따름</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NCHAR</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G12" s="1" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -688,7 +690,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J12"/>
@@ -698,7 +700,7 @@
         </is>
       </c>
       <c r="L12" s="1" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="13">
@@ -714,17 +716,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>DETAILED_ADDR</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>DETAILED_ADDR</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>사용자 이름 null 안됨</t>
+          <t>세부주소</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -733,7 +735,7 @@
         </is>
       </c>
       <c r="G13" s="1" t="n">
-        <v>40.0</v>
+        <v>100.0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -742,7 +744,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J13"/>
@@ -752,7 +754,7 @@
         </is>
       </c>
       <c r="L13" s="1" t="n">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="14">
@@ -768,45 +770,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TYPE_CODE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TYPE_CODE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>이메일</t>
+          <t>계정타입 - 외래키, null 안됨(식별관계)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G14" s="1" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>2.0</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J14"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K14"/>
       <c r="L14" s="1" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -822,17 +818,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PHONE</t>
+          <t>ISDEL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PHONE</t>
+          <t>ISDEL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>전화번호</t>
+          <t>삭제 확인 코드 - 외래키 null 안됨 기본값:0</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -844,14 +840,18 @@
         <v>22.0</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J15"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
       <c r="K15"/>
       <c r="L15" s="1" t="n">
         <v>0.0</v>
@@ -870,17 +870,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>계정코드 설명</t>
+          <t>계정코드 이름</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="G16" s="1" t="n">
-        <v>800.0</v>
+        <v>30.0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J16"/>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="L16" s="1" t="n">
-        <v>400.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="17">
@@ -972,17 +972,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>계정코드 이름</t>
+          <t>계정코드 설명</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="G18" s="1" t="n">
-        <v>30.0</v>
+        <v>800.0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J18"/>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="L18" s="1" t="n">
-        <v>15.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="19">
@@ -1026,31 +1026,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>WRITER_IDX</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>WRITER_IDX</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>제목 - null 안됨</t>
+          <t>작성자 번호 - 외래키 null안됨. 작성자 타입에 따른 규칙은 어플리케이션에서 구현</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G19" s="1" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>8.0</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1058,13 +1056,9 @@
         </is>
       </c>
       <c r="J19"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K19"/>
       <c r="L19" s="1" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -1080,17 +1074,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>WRITER_IDX</t>
+          <t>IDX</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>WRITER_IDX</t>
+          <t>IDX</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>작성자 번호 - 외래키 null안됨. 작성자 타입에 따른 규칙은 어플리케이션에서 구현</t>
+          <t>공지사항번호 - 기본키, 인조식별자</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1102,7 +1096,7 @@
         <v>22.0</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1128,17 +1122,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CONTENT</t>
+          <t>TITLE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CONTENT</t>
+          <t>TITLE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>내용</t>
+          <t>제목 - null 안됨</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1147,7 +1141,7 @@
         </is>
       </c>
       <c r="G21" s="1" t="n">
-        <v>4000.0</v>
+        <v>100.0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1156,7 +1150,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J21"/>
@@ -1166,7 +1160,7 @@
         </is>
       </c>
       <c r="L21" s="1" t="n">
-        <v>2000.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="22">
@@ -1228,29 +1222,31 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>IDX</t>
+          <t>WRITTEN_TIME</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>IDX</t>
+          <t>WRITTEN_TIME</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>공지사항번호 - 기본키, 인조식별자</t>
+          <t>작성시각 - null안됨 트리거있음</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
         </is>
       </c>
       <c r="G23" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1276,26 +1272,26 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>WRITTEN_TIME</t>
+          <t>CONTENT</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>WRITTEN_TIME</t>
+          <t>CONTENT</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>작성시각 - null안됨 트리거있음</t>
+          <t>내용</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G24" s="1" t="n">
-        <v>7.0</v>
+        <v>4000.0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1304,13 +1300,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J24"/>
-      <c r="K24"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L24" s="1" t="n">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="25">
@@ -1321,22 +1321,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BUSINESS_INFO</t>
+          <t>AUCTION</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BUSINESS_LICENSE_CODE</t>
+          <t>IDX</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>BUSINESS_LICENSE_CODE</t>
+          <t>IDX</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>사업자 번호 + 복합 기본키</t>
+          <t>경매번호 - 기본키, 인조식별자. 트리거 있음</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BUSINESS_INFO</t>
+          <t>AUCTION</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ACC_IDX</t>
+          <t>WRITTER_IDX</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ACC_IDX</t>
+          <t>WRITTER_IDX</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>계정번호 참조 외래키 + 복합 기본키 = 계정마다 서로 다른 여러 개의 사업자 정보를 등록 가능.</t>
+          <t>작성자 인덱스 - 외래키. null 불가</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1417,36 +1417,34 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BUSINESS_INFO</t>
+          <t>AUCTION</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CORPORATION_NAME</t>
+          <t>STATE_CODE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CORPORATION_NAME</t>
+          <t>STATE_CODE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>법인명/단체명</t>
+          <t>경매 상태 비즈니스 코드 - 외래키. null불가. 트리거 있음</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G27" s="1" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>2.0</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1454,13 +1452,9 @@
         </is>
       </c>
       <c r="J27"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K27"/>
       <c r="L27" s="1" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -1471,31 +1465,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BUSINESS_INFO</t>
+          <t>AUCTION</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>REG_DATE</t>
+          <t>ITEM_IMG</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>REG_DATE</t>
+          <t>ITEM_IMG</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>등록일 - 트리거있음</t>
+          <t>경매물품 사진 - null 불가</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+          <t>VARCHAR2</t>
         </is>
       </c>
       <c r="G28" s="1" t="n">
-        <v>7.0</v>
+        <v>800.0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1508,9 +1502,13 @@
         </is>
       </c>
       <c r="J28"/>
-      <c r="K28"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>CHAR_CS</t>
+        </is>
+      </c>
       <c r="L28" s="1" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="29">
@@ -1521,22 +1519,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BUSINESS_INFO</t>
+          <t>AUCTION</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BUSINESS_TYPE</t>
+          <t>CONTENT</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>BUSINESS_TYPE</t>
+          <t>CONTENT</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>사업의 종류</t>
+          <t>글내용 - null 불가</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1545,7 +1543,7 @@
         </is>
       </c>
       <c r="G29" s="1" t="n">
-        <v>50.0</v>
+        <v>4000.0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1564,7 +1562,7 @@
         </is>
       </c>
       <c r="L29" s="1" t="n">
-        <v>25.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="30">
@@ -1575,22 +1573,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BUSINESS_INFO</t>
+          <t>AUCTION</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BUSINESS_CATEGORY</t>
+          <t>TITLE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>BUSINESS_CATEGORY</t>
+          <t>TITLE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>사업의 업태</t>
+          <t>글제목 - null 불가</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1599,7 +1597,7 @@
         </is>
       </c>
       <c r="G30" s="1" t="n">
-        <v>50.0</v>
+        <v>80.0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1618,7 +1616,7 @@
         </is>
       </c>
       <c r="L30" s="1" t="n">
-        <v>25.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="31">
@@ -1629,36 +1627,34 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BUSINESS_INFO</t>
+          <t>AUCTION</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HEADHQUARTER_DETAILED_ADDR</t>
+          <t>START_PRICE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HEADHQUARTER_DETAILED_ADDR</t>
+          <t>START_PRICE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>본점주소 - 세부주소</t>
+          <t>시작가격 - null 불가. 0이상</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G31" s="1" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>9.0</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1666,13 +1662,9 @@
         </is>
       </c>
       <c r="J31"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K31"/>
       <c r="L31" s="1" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -1683,36 +1675,34 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BUSINESS_INFO</t>
+          <t>AUCTION</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HEADHQUARTER_ADDR</t>
+          <t>DUE_TIME_CODE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HEADHQUARTER_ADDR</t>
+          <t>DUE_TIME_CODE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>본점주소 - 도 시 동 까지</t>
+          <t>경매 기간 타입 - 외래키. null불가</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G32" s="1" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>2.0</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1720,13 +1710,9 @@
         </is>
       </c>
       <c r="J32"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K32"/>
       <c r="L32" s="1" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -1737,31 +1723,31 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BUSINESS_INFO</t>
+          <t>AUCTION</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BUSINESS_DETAILED_ADDR</t>
+          <t>REG_TIME</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>BUSINESS_DETAILED_ADDR</t>
+          <t>REG_TIME</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>사업장 소재지 - 세부주소</t>
+          <t>작성시간 - null 불가. 트리거 있음</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>TIMESTAMP(3) WITH LOCAL TIME ZONE</t>
         </is>
       </c>
       <c r="G33" s="1" t="n">
-        <v>100.0</v>
+        <v>11.0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1774,13 +1760,9 @@
         </is>
       </c>
       <c r="J33"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K33"/>
       <c r="L33" s="1" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -1791,22 +1773,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BUSINESS_INFO</t>
+          <t>AUCTION_DUE_TYPE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BUSINESS_DONG</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>BUSINESS_DONG</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>사업장 소재지 - 동</t>
+          <t>타입 이름 - null 안됨</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1815,7 +1797,7 @@
         </is>
       </c>
       <c r="G34" s="1" t="n">
-        <v>14.0</v>
+        <v>30.0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1834,7 +1816,7 @@
         </is>
       </c>
       <c r="L34" s="1" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="35">
@@ -1845,36 +1827,34 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BUSINESS_INFO</t>
+          <t>AUCTION_DUE_TYPE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BUSINESS_CITY</t>
+          <t>DUE_TIME</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>BUSINESS_CITY</t>
+          <t>DUE_TIME</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>사업장 소재지 - 시</t>
+          <t>시간(길이) - null 안됨</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>INTERVAL DAY(3) TO SECOND(6)</t>
         </is>
       </c>
       <c r="G35" s="1" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>11.0</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>3.0</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1882,13 +1862,9 @@
         </is>
       </c>
       <c r="J35"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K35"/>
       <c r="L35" s="1" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -1899,36 +1875,34 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BUSINESS_INFO</t>
+          <t>AUCTION_DUE_TYPE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BUSINESS_PROVINCE</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>BUSINESS_PROVINCE</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>사업장 소재지- 도</t>
+          <t>만료시간 비즈니스 코드 - 기본키</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G36" s="1" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>2.0</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -1936,13 +1910,9 @@
         </is>
       </c>
       <c r="J36"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K36"/>
       <c r="L36" s="1" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -1953,22 +1923,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BUSINESS_INFO</t>
+          <t>AUCTION_DUE_TYPE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>REPRESENTATIVE</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>REPRESENTATIVE</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>대표자</t>
+          <t>타입 설명</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1977,7 +1947,7 @@
         </is>
       </c>
       <c r="G37" s="1" t="n">
-        <v>40.0</v>
+        <v>800.0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1986,7 +1956,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J37"/>
@@ -1996,7 +1966,7 @@
         </is>
       </c>
       <c r="L37" s="1" t="n">
-        <v>20.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="38">
@@ -2007,22 +1977,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>AUCTION_STATE_TYPE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>IDX</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>IDX</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>식별번호 - 후보키 인조식별자. 순전히 쿼리를 쉽게 하기 위한 도구로 넣음</t>
+          <t>코드 - 기본키</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2034,7 +2004,7 @@
         <v>22.0</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2055,34 +2025,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>AUCTION_STATE_TYPE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ACC_IDX</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ACC_IDX</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>계정번호 - 복합기본키 + 외래키 (계정.계정번호)</t>
+          <t>상태 이름 - null 불가</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G39" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>8.0</v>
+        <v>60.0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2090,9 +2062,13 @@
         </is>
       </c>
       <c r="J39"/>
-      <c r="K39"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L39" s="1" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="40">
@@ -2103,44 +2079,50 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>AUCTION_STATE_TYPE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>COUNT</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>COUNT</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>갯수, 실제 남은 숫자는 비교를 안하니 조심. - application에서 무결성을 확인 해야 하는 부분</t>
+          <t>설명</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G40" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <v>7.0</v>
+        <v>800.0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J40"/>
-      <c r="K40"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L40" s="1" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="41">
@@ -2151,40 +2133,38 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ADDED_TIME</t>
+          <t>AMOUNT</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ADDED_TIME</t>
+          <t>AMOUNT</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>등록시간 - 트리거 있음</t>
+          <t>입찰액 - null불가. 0이상</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G41" s="1" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>11.0</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J41"/>
@@ -2201,36 +2181,34 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SALE_OPT_NAME</t>
+          <t>BIDDER_IDX</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SALE_OPT_NAME</t>
+          <t>BIDDER_IDX</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>해당 옵션의 이름 - 복합기본키 + 외래키 (판매옵션.옵션이름)</t>
+          <t>입찰자 계정번호 - 외래키. null불가</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G42" s="1" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>8.0</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2238,13 +2216,9 @@
         </is>
       </c>
       <c r="J42"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K42"/>
       <c r="L42" s="1" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -2255,22 +2229,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CART</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SALE_IDX</t>
+          <t>AUCTION_IDX</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SALE_IDX</t>
+          <t>AUCTION_IDX</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>해당 옵션의 판매글 번호 - 복합기본키 + 외래키 (판매옵션.판매글번호)</t>
+          <t>대상 경매 번호 - 외래키. null불가</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2282,7 +2256,7 @@
         <v>22.0</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2303,36 +2277,34 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CATEGORY</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>IDX</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>IDX</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>카테고리 노드 이름 - null 안됨</t>
+          <t>입찰번호 - 기본키, 인조식별자. 트리거 있음</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G44" s="1" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>12.0</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2340,13 +2312,9 @@
         </is>
       </c>
       <c r="J44"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K44"/>
       <c r="L44" s="1" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -2357,22 +2325,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CATEGORY</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>IDX</t>
+          <t>STATE_CODE</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IDX</t>
+          <t>STATE_CODE</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>카테고리 식별 번호 - 인조식별자 기본키. 트리거있음</t>
+          <t>입찰 상태 코드 - 외래키. null불가. 트리거 있음</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2384,7 +2352,7 @@
         <v>22.0</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2405,31 +2373,31 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CATEGORY</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>BID_TIME</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>BID_TIME</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>카테고리 노드 설명</t>
+          <t>입찰 시각 - null불가. 트리거 있음</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>TIMESTAMP(3) WITH LOCAL TIME ZONE</t>
         </is>
       </c>
       <c r="G46" s="1" t="n">
-        <v>2000.0</v>
+        <v>11.0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2438,17 +2406,13 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J46"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K46"/>
       <c r="L46" s="1" t="n">
-        <v>1000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -2459,22 +2423,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CATEGORY_MAP</t>
+          <t>BID_STATE_TYPE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SUPER_CATEGORY</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SUPER_CATEGORY</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>상위 분류 - 기본키 + 외래키 (카테고리 IDX) 식별관계</t>
+          <t>경매 상태 코드 - 기본키</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2486,7 +2450,7 @@
         <v>22.0</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2507,22 +2471,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CATEGORY_MAP</t>
+          <t>BID_STATE_TYPE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>관계 설명</t>
+          <t>경매 상태 이름 - null 불가</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2531,7 +2495,7 @@
         </is>
       </c>
       <c r="G48" s="1" t="n">
-        <v>600.0</v>
+        <v>60.0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2540,7 +2504,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J48"/>
@@ -2550,7 +2514,7 @@
         </is>
       </c>
       <c r="L48" s="1" t="n">
-        <v>300.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="49">
@@ -2561,44 +2525,50 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CATEGORY_MAP</t>
+          <t>BID_STATE_TYPE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SUB_CATEGORY</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SUB_CATEGORY</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>하위 분류 - 기본키 + 외래키 (카테고리 IDX) 식별관계</t>
+          <t>경매 상태 설명</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G49" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>3.0</v>
+        <v>800.0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J49"/>
-      <c r="K49"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L49" s="1" t="n">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="50">
@@ -2609,22 +2579,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ISDEL_TYPE</t>
+          <t>BUSINESS_INFO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>REPRESENTATIVE</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>REPRESENTATIVE</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>상태 이름</t>
+          <t>대표자</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2633,7 +2603,7 @@
         </is>
       </c>
       <c r="G50" s="1" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2652,7 +2622,7 @@
         </is>
       </c>
       <c r="L50" s="1" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="51">
@@ -2663,22 +2633,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ISDEL_TYPE</t>
+          <t>BUSINESS_INFO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>CORPORATION_NAME</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>CORPORATION_NAME</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>상태 설명</t>
+          <t>법인명/단체명</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2687,7 +2657,7 @@
         </is>
       </c>
       <c r="G51" s="1" t="n">
-        <v>800.0</v>
+        <v>40.0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2696,7 +2666,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J51"/>
@@ -2706,7 +2676,7 @@
         </is>
       </c>
       <c r="L51" s="1" t="n">
-        <v>400.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="52">
@@ -2717,22 +2687,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ISDEL_TYPE</t>
+          <t>BUSINESS_INFO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CODE</t>
+          <t>BUSINESS_LICENSE_CODE</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CODE</t>
+          <t>BUSINESS_LICENSE_CODE</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>삭제상태 코드 - 기본키. 시퀀스 없음. 0: 삭제안됨, 1: 삭제됨</t>
+          <t>사업자 번호 + 복합 기본키</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2744,7 +2714,7 @@
         <v>22.0</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2765,22 +2735,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MESSAGE</t>
+          <t>BUSINESS_INFO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>IDX</t>
+          <t>ACC_IDX</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>IDX</t>
+          <t>ACC_IDX</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>쪽지번호 - 기본키, 인조식별자</t>
+          <t>계정번호 참조 외래키 + 복합 기본키 = 계정마다 서로 다른 여러 개의 사업자 정보를 등록 가능.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2792,7 +2762,7 @@
         <v>22.0</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2813,22 +2783,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MESSAGE</t>
+          <t>BUSINESS_INFO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SENDER_IDX</t>
+          <t>TYPE_CODE</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SENDER_IDX</t>
+          <t>TYPE_CODE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>보낸사람 - 외래키 (계정.계정번호) null안됨</t>
+          <t>사업자 등록증 타입 - 기본값 처리해둠</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2840,14 +2810,18 @@
         <v>22.0</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J54"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
       <c r="K54"/>
       <c r="L54" s="1" t="n">
         <v>0.0</v>
@@ -2861,22 +2835,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MESSAGE</t>
+          <t>BUSINESS_INFO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>RECEIVER_IDX</t>
+          <t>IDX</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RECEIVER_IDX</t>
+          <t>IDX</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>받는사람 - 외래키 (계정.계정번호) null안됨</t>
+          <t>인덱스 - not null unique : 후보키 - 자동인덱스 생성</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2909,31 +2883,31 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MESSAGE</t>
+          <t>BUSINESS_INFO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>INFO_REG_DATE</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>INFO_REG_DATE</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>제목 - null 안됨</t>
+          <t>등록일 - 트리거있음</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
         </is>
       </c>
       <c r="G56" s="1" t="n">
-        <v>400.0</v>
+        <v>7.0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2946,13 +2920,9 @@
         </is>
       </c>
       <c r="J56"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K56"/>
       <c r="L56" s="1" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -2963,22 +2933,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MESSAGE</t>
+          <t>BUSINESS_INFO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CONTENT</t>
+          <t>BUSINESS_ADDR</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CONTENT</t>
+          <t>BUSINESS_ADDR</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>내용</t>
+          <t>사업장 세부주소 앞 까지</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2987,7 +2957,7 @@
         </is>
       </c>
       <c r="G57" s="1" t="n">
-        <v>2000.0</v>
+        <v>8.0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2996,7 +2966,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J57"/>
@@ -3006,7 +2976,7 @@
         </is>
       </c>
       <c r="L57" s="1" t="n">
-        <v>1000.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="58">
@@ -3017,31 +2987,31 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MESSAGE</t>
+          <t>BUSINESS_INFO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>WRITTEN_TIME</t>
+          <t>BUSINESS_DETAILED_ADDR</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>WRITTEN_TIME</t>
+          <t>BUSINESS_DETAILED_ADDR</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>작성시각 - null안됨 트리거 있음</t>
+          <t>사업장 소재지 - 세부주소</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G58" s="1" t="n">
-        <v>7.0</v>
+        <v>100.0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3054,9 +3024,13 @@
         </is>
       </c>
       <c r="J58"/>
-      <c r="K58"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L58" s="1" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="59">
@@ -3067,48 +3041,50 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MESSAGE</t>
+          <t>BUSINESS_INFO</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>IS_READ</t>
+          <t>HEADHQUARTER_ADDR</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>IS_READ</t>
+          <t>HEADHQUARTER_ADDR</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>조회 여부 표시. 1:읽음, 0:안읽음, 기본값:0</t>
+          <t>본점주소 - 도 시 동 까지</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G59" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <v>1.0</v>
+        <v>40.0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0 </t>
-        </is>
-      </c>
-      <c r="K59"/>
+      <c r="J59"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L59" s="1" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="60">
@@ -3119,31 +3095,31 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MESSAGE</t>
+          <t>BUSINESS_INFO</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>READ_TIME</t>
+          <t>HEADHQUARTER_DETAILED_ADDR</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>READ_TIME</t>
+          <t>HEADHQUARTER_DETAILED_ADDR</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>읽은 시각 기록 - 조회여부 확인용.</t>
+          <t>본점주소 - 세부주소</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G60" s="1" t="n">
-        <v>7.0</v>
+        <v>100.0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3152,13 +3128,17 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J60"/>
-      <c r="K60"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L60" s="1" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="61">
@@ -3169,34 +3149,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MESSAGE</t>
+          <t>BUSINESS_INFO</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>TYPE_CODE</t>
+          <t>BUSINESS_CATEGORY</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>TYPE_CODE</t>
+          <t>BUSINESS_CATEGORY</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>메세지 타입 - 일단은 시스템 알림이나 관리자 문의사항 조회를 쉽게 하기 위한 부분인데, 더 세분화 해서 기능을 확장할 수 있는 부분(추가 테이블이 필요할 수도 있음). 예시) 중요 메세지 표시</t>
+          <t>사업의 업태</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G61" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H61" s="1" t="n">
-        <v>2.0</v>
+        <v>50.0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3204,9 +3186,13 @@
         </is>
       </c>
       <c r="J61"/>
-      <c r="K61"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L61" s="1" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="62">
@@ -3217,48 +3203,50 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MESSAGE</t>
+          <t>BUSINESS_INFO</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ISDEL</t>
+          <t>BUSINESS_TYPE</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ISDEL</t>
+          <t>BUSINESS_TYPE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>삭제 확인 코드 - 외래키, 기본값:0, null안됨</t>
+          <t>사업의 종류</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G62" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H62" s="1" t="n">
-        <v>1.0</v>
+        <v>50.0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0 </t>
-        </is>
-      </c>
-      <c r="K62"/>
+      <c r="J62"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L62" s="1" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="63">
@@ -3269,22 +3257,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MESSAGE_TYPE</t>
+          <t>BUSINESS_INFO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>REG_DATE</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>REG_DATE</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>쪽지 타입 설명</t>
+          <t>사업자 등록증 등록일 - null 허용!</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3293,7 +3281,7 @@
         </is>
       </c>
       <c r="G63" s="1" t="n">
-        <v>4000.0</v>
+        <v>40.0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3302,7 +3290,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J63"/>
@@ -3312,7 +3300,7 @@
         </is>
       </c>
       <c r="L63" s="1" t="n">
-        <v>2000.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="64">
@@ -3323,34 +3311,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MESSAGE_TYPE</t>
+          <t>BUSINESS_INFO</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CODE</t>
+          <t>LICENSE_IMG</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>CODE</t>
+          <t>LICENSE_IMG</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>쪽지 타입 코드 - 기본키 시퀀스없음</t>
+          <t>사업자 등록증 이미지. 받은 이미지가 없을 때 기본값 이미지를 넣어두고 null처리를 해서 넣을수도 있음</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G64" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H64" s="1" t="n">
-        <v>2.0</v>
+        <v>400.0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3358,9 +3348,13 @@
         </is>
       </c>
       <c r="J64"/>
-      <c r="K64"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L64" s="1" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="65">
@@ -3371,7 +3365,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MESSAGE_TYPE</t>
+          <t>BUSINESS_INFO_TYPE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3386,7 +3380,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>쪽지 타입 이름 - null 안됨</t>
+          <t>사업자 등록증 타입 이름</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3425,50 +3419,44 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PAYMENT_TYPE</t>
+          <t>BUSINESS_INFO_TYPE</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>결제타입 코드 설명</t>
+          <t>사업자 등록증 타입 비즈니스 코드</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G66" s="1" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>2.0</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J66"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K66"/>
       <c r="L66" s="1" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -3479,22 +3467,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PAYMENT_TYPE</t>
+          <t>BUSINESS_INFO_TYPE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>결제타입 코드 이름</t>
+          <t>사업자 등록증 타입 설명</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3503,7 +3491,7 @@
         </is>
       </c>
       <c r="G67" s="1" t="n">
-        <v>40.0</v>
+        <v>800.0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3512,7 +3500,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J67"/>
@@ -3522,7 +3510,7 @@
         </is>
       </c>
       <c r="L67" s="1" t="n">
-        <v>20.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="68">
@@ -3533,22 +3521,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PAYMENT_TYPE</t>
+          <t>CART</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CODE</t>
+          <t>IDX</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>CODE</t>
+          <t>IDX</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>결제타입 코드 -트리거나 시퀀스 없음</t>
+          <t>식별번호 - 후보키 인조식별자. 순전히 쿼리를 쉽게 하기 위한 도구로 넣음</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3560,7 +3548,7 @@
         <v>22.0</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3581,40 +3569,38 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>CART</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LAST_EDITED</t>
+          <t>ACC_IDX</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LAST_EDITED</t>
+          <t>ACC_IDX</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>마지막 수정 시간 - 트리거 있음 (옵션의 변경에 대해서는 트리거가 안되어있음. 필요하면 만들 수 있을듯)</t>
+          <t>계정번호 - 복합기본키 + 외래키 (계정.계정번호)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G69" s="1" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>8.0</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J69"/>
@@ -3631,36 +3617,34 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>CART</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>WRITTEN_TIME</t>
+          <t>SALE_IDX</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>WRITTEN_TIME</t>
+          <t>SALE_IDX</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>글 쓴 시간 - 트리거 있음</t>
+          <t>해당 옵션의 판매글 번호 - 복합기본키 + 외래키 (판매옵션.판매글번호)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G70" s="1" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>10.0</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -3681,22 +3665,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>CART</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ORIGIN</t>
+          <t>SALE_OPT_NAME</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ORIGIN</t>
+          <t>SALE_OPT_NAME</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>원산지. - null안됨</t>
+          <t>해당 옵션의 이름 - 복합기본키 + 외래키 (판매옵션.옵션이름)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3705,7 +3689,7 @@
         </is>
       </c>
       <c r="G71" s="1" t="n">
-        <v>120.0</v>
+        <v>50.0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -3724,7 +3708,7 @@
         </is>
       </c>
       <c r="L71" s="1" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="72">
@@ -3735,36 +3719,34 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>CART</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>COUNT</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>COUNT</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>판매글제목 - null 안됨</t>
+          <t>갯수, 실제 남은 숫자는 비교를 안하니 조심. - application에서 무결성을 확인 해야 하는 부분</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G72" s="1" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>7.0</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3772,13 +3754,9 @@
         </is>
       </c>
       <c r="J72"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K72"/>
       <c r="L72" s="1" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
@@ -3789,38 +3767,40 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>CART</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ACC_IDX</t>
+          <t>ADDED_TIME</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ACC_IDX</t>
+          <t>ADDED_TIME</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>판매글 올린이 idx - 외래키 null안됨 : 식별관계</t>
+          <t>등록시간 - 트리거 있음</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
         </is>
       </c>
       <c r="G73" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H73" s="1" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J73"/>
@@ -3837,7 +3817,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>CATEGORY</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3852,7 +3832,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>판매글 번호 - 기본키 인조식별자. 트리거 있음</t>
+          <t>카테고리 식별 번호 - 인조식별자 기본키. 트리거있음</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3864,7 +3844,7 @@
         <v>22.0</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -3885,22 +3865,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>CATEGORY</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CONTENT</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>CONTENT</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>부가설명(글내용)</t>
+          <t>카테고리 노드 이름 - null 안됨</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3909,7 +3889,7 @@
         </is>
       </c>
       <c r="G75" s="1" t="n">
-        <v>2000.0</v>
+        <v>30.0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3918,7 +3898,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J75"/>
@@ -3928,7 +3908,7 @@
         </is>
       </c>
       <c r="L75" s="1" t="n">
-        <v>1000.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="76">
@@ -3939,48 +3919,50 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>CATEGORY</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ISDEL</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ISDEL</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>삭제 확인 코드 - 외래키, 기본값:0, null안됨</t>
+          <t>카테고리 노드 설명</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G76" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H76" s="1" t="n">
-        <v>1.0</v>
+        <v>2000.0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0 </t>
-        </is>
-      </c>
-      <c r="K76"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J76"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L76" s="1" t="n">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="77">
@@ -3991,50 +3973,44 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>CATEGORY_MAP</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>IMG_MAIN</t>
+          <t>SUPER_CATEGORY</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>IMG_MAIN</t>
+          <t>SUPER_CATEGORY</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>본문이미지 파일 위치 (디렉토리와 이름을 모두 포함해서 저장하기, 원래이름은 필요없음)</t>
+          <t>상위 분류 - 기본키 + 외래키 (카테고리 IDX) 식별관계</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>VARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G77" s="1" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>3.0</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J77"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>CHAR_CS</t>
-        </is>
-      </c>
+      <c r="K77"/>
       <c r="L77" s="1" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
@@ -4045,50 +4021,44 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>CATEGORY_MAP</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>IMG_FACE</t>
+          <t>SUB_CATEGORY</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>IMG_FACE</t>
+          <t>SUB_CATEGORY</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>대표이지미 파일 위치 (디렉토리와 이름을 모두 포함해서 저장하기, 원래이름은 필요없음)</t>
+          <t>하위 분류 - 기본키 + 외래키 (카테고리 IDX) 식별관계</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>VARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G78" s="1" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>3.0</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J78"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>CHAR_CS</t>
-        </is>
-      </c>
+      <c r="K78"/>
       <c r="L78" s="1" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
@@ -4099,44 +4069,50 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SALE_INQUIRE</t>
+          <t>CATEGORY_MAP</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>IDX</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>IDX</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>판매 문의 번호 - 인조식별자, 기본키</t>
+          <t>관계 설명</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G79" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H79" s="1" t="n">
-        <v>11.0</v>
+        <v>600.0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J79"/>
-      <c r="K79"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L79" s="1" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="80">
@@ -4147,22 +4123,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SALE_INQUIRE</t>
+          <t>ISDEL_TYPE</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SALE_IDX</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SALE_IDX</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>대상 판매글 - 외래키 (판매글.IDX). null 안됨</t>
+          <t>삭제상태 코드 - 기본키. 시퀀스 없음. 0: 삭제안됨, 1: 삭제됨</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4174,7 +4150,7 @@
         <v>22.0</v>
       </c>
       <c r="H80" s="1" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -4195,34 +4171,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SALE_INQUIRE</t>
+          <t>ISDEL_TYPE</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>WRITER_IDX</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>WRITER_IDX</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>글쓴이 - 외래키 (계정.IDX). null 안됨</t>
+          <t>상태 이름</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G81" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H81" s="1" t="n">
-        <v>8.0</v>
+        <v>30.0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -4230,9 +4208,13 @@
         </is>
       </c>
       <c r="J81"/>
-      <c r="K81"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L81" s="1" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="82">
@@ -4243,22 +4225,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SALE_INQUIRE</t>
+          <t>ISDEL_TYPE</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>제목 - null 안됨</t>
+          <t>상태 설명</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4267,7 +4249,7 @@
         </is>
       </c>
       <c r="G82" s="1" t="n">
-        <v>80.0</v>
+        <v>800.0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -4276,7 +4258,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J82"/>
@@ -4286,7 +4268,7 @@
         </is>
       </c>
       <c r="L82" s="1" t="n">
-        <v>40.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="83">
@@ -4297,22 +4279,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SALE_INQUIRE</t>
+          <t>MESSAGE</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ISDEL</t>
+          <t>IDX</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ISDEL</t>
+          <t>IDX</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>삭제 확인 코드 - 외래키, 기본값:0, null안됨</t>
+          <t>쪽지번호 - 기본키, 인조식별자</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4324,18 +4306,14 @@
         <v>22.0</v>
       </c>
       <c r="H83" s="1" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0 </t>
-        </is>
-      </c>
+      <c r="J83"/>
       <c r="K83"/>
       <c r="L83" s="1" t="n">
         <v>0.0</v>
@@ -4349,40 +4327,38 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SALE_INQUIRE</t>
+          <t>MESSAGE</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ANSWER_TIME</t>
+          <t>SENDER_IDX</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ANSWER_TIME</t>
+          <t>SENDER_IDX</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>응답 시각 - 트리거 있음</t>
+          <t>보낸사람 - 외래키 (계정.계정번호) null안됨</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G84" s="1" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>8.0</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J84"/>
@@ -4399,50 +4375,44 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SALE_INQUIRE</t>
+          <t>MESSAGE</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ANSWER</t>
+          <t>RECEIVER_IDX</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ANSWER</t>
+          <t>RECEIVER_IDX</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>응답 - 당연히 해당 글이 속한 판매글의 판매자 만이 응답 가능하게 해야 함.</t>
+          <t>받는사람 - 외래키 (계정.계정번호) null안됨</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G85" s="1" t="n">
-        <v>4000.0</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>8.0</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J85"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K85"/>
       <c r="L85" s="1" t="n">
-        <v>2000.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
@@ -4453,31 +4423,31 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SALE_INQUIRE</t>
+          <t>MESSAGE</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>WRITTEN_TIME</t>
+          <t>TITLE</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>WRITTEN_TIME</t>
+          <t>TITLE</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>글 쓴 시각 - null 안됨. 트리거 있음</t>
+          <t>제목 - null 안됨</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G86" s="1" t="n">
-        <v>7.0</v>
+        <v>400.0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -4490,9 +4460,13 @@
         </is>
       </c>
       <c r="J86"/>
-      <c r="K86"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L86" s="1" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="87">
@@ -4503,7 +4477,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SALE_INQUIRE</t>
+          <t>MESSAGE</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4527,7 +4501,7 @@
         </is>
       </c>
       <c r="G87" s="1" t="n">
-        <v>4000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -4546,7 +4520,7 @@
         </is>
       </c>
       <c r="L87" s="1" t="n">
-        <v>2000.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="88">
@@ -4557,31 +4531,31 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SALE_OPTION</t>
+          <t>MESSAGE</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>WRITTEN_TIME</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NAME</t>
+          <t>WRITTEN_TIME</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>판매 옵션 이름 - 복합기본키 : 같은 판매글에 같은 이름의 옵션 불허 - 만약 허용하려면 인조식별자 쓰기</t>
+          <t>작성시각 - null안됨 트리거 있음</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
         </is>
       </c>
       <c r="G88" s="1" t="n">
-        <v>50.0</v>
+        <v>7.0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -4594,13 +4568,9 @@
         </is>
       </c>
       <c r="J88"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K88"/>
       <c r="L88" s="1" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="89">
@@ -4611,22 +4581,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SALE_OPTION</t>
+          <t>MESSAGE</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SALE_IDX</t>
+          <t>IS_READ</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SALE_IDX</t>
+          <t>IS_READ</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>판매글 번호 - 복합기본키 + 외래키 판매글번호 참조 : 식별관계</t>
+          <t>조회 여부 표시. 1:읽음, 0:안읽음, 기본값:0</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4638,14 +4608,18 @@
         <v>22.0</v>
       </c>
       <c r="H89" s="1" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J89"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
       <c r="K89"/>
       <c r="L89" s="1" t="n">
         <v>0.0</v>
@@ -4659,50 +4633,48 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SALE_OPTION</t>
+          <t>MESSAGE</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>ISDEL</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>ISDEL</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>판매 옵션 설명</t>
+          <t>삭제 확인 코드 - 외래키, 기본값:0, null안됨</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G90" s="1" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>1.0</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J90"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="K90"/>
       <c r="L90" s="1" t="n">
-        <v>200.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
@@ -4713,22 +4685,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SALE_OPTION</t>
+          <t>MESSAGE</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ISDEL</t>
+          <t>TYPE_CODE</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ISDEL</t>
+          <t>TYPE_CODE</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>삭제 확인 코드 - 외래키, 기본값:0, null안됨</t>
+          <t>메세지 타입 - 일단은 시스템 알림이나 관리자 문의사항 조회를 쉽게 하기 위한 부분인데, 더 세분화 해서 기능을 확장할 수 있는 부분(추가 테이블이 필요할 수도 있음). 예시) 중요 메세지 표시</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4740,7 +4712,7 @@
         <v>22.0</v>
       </c>
       <c r="H91" s="1" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -4765,22 +4737,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SALE_OPTION</t>
+          <t>MESSAGE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>LAST_EDITED</t>
+          <t>READ_TIME</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LAST_EDITED</t>
+          <t>READ_TIME</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>해당 옵션 내용이 마지막으로 수정된 시각 - 트리거 있음</t>
+          <t>읽은 시각 기록 - 조회여부 확인용.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4815,36 +4787,34 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SALE_OPTION</t>
+          <t>MESSAGE_TYPE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>WRITTEN_TIME</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>WRITTEN_TIME</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>해당 옵션을 등록한 시각 - 트리거 있음</t>
+          <t>쪽지 타입 코드 - 기본키 시퀀스없음</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G93" s="1" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>2.0</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -4865,31 +4835,31 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SALE_OPTION</t>
+          <t>MESSAGE_TYPE</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>LASTSOLD_TIME</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LASTSOLD_TIME</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>마지막으로 해당 옵션이 팔린 시각</t>
+          <t>쪽지 타입 이름 - null 안됨</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G94" s="1" t="n">
-        <v>7.0</v>
+        <v>100.0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -4898,13 +4868,17 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J94"/>
-      <c r="K94"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L94" s="1" t="n">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="95">
@@ -4915,44 +4889,50 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SALE_OPTION</t>
+          <t>MESSAGE_TYPE</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>LEFT_AMOUNT</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LEFT_AMOUNT</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>판매 옵션 남은 개수 - null안됨 0이상</t>
+          <t>쪽지 타입 설명</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G95" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H95" s="1" t="n">
-        <v>7.0</v>
+        <v>4000.0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J95"/>
-      <c r="K95"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L95" s="1" t="n">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="96">
@@ -4963,22 +4943,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SALE_OPTION</t>
+          <t>PAYMENT_TYPE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>START_AMOUNT</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>START_AMOUNT</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>판매 옵션 시작 개수 - null안됨 0초과</t>
+          <t>결제타입 코드 -트리거나 시퀀스 없음</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4990,7 +4970,7 @@
         <v>22.0</v>
       </c>
       <c r="H96" s="1" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -5011,22 +4991,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SALE_OPTION</t>
+          <t>PAYMENT_TYPE</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>UNIT</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>판매 옵션 (개수당)단위 - null안됨</t>
+          <t>결제타입 코드 설명</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5035,7 +5015,7 @@
         </is>
       </c>
       <c r="G97" s="1" t="n">
-        <v>40.0</v>
+        <v>400.0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -5044,7 +5024,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J97"/>
@@ -5054,7 +5034,7 @@
         </is>
       </c>
       <c r="L97" s="1" t="n">
-        <v>20.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="98">
@@ -5065,34 +5045,36 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SALE_OPTION</t>
+          <t>PAYMENT_TYPE</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>PRICE</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>PRICE</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>판매 옵션 가격 - null안됨 0초과.</t>
+          <t>결제타입 코드 이름</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G98" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H98" s="1" t="n">
-        <v>7.0</v>
+        <v>40.0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -5100,9 +5082,13 @@
         </is>
       </c>
       <c r="J98"/>
-      <c r="K98"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L98" s="1" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="99">
@@ -5113,44 +5099,50 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SALE_OPT_CATEGORY</t>
+          <t>SALE</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CATEGORY_IDX</t>
+          <t>CONTENT</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CATEGORY_IDX</t>
+          <t>CONTENT</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>카테고리 - 복합 기본키 + 외래키</t>
+          <t>부가설명(글내용)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G99" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H99" s="1" t="n">
-        <v>3.0</v>
+        <v>2000.0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J99"/>
-      <c r="K99"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L99" s="1" t="n">
-        <v>0.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="100">
@@ -5161,31 +5153,31 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SALE_OPT_CATEGORY</t>
+          <t>SALE</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>OPT_NAME</t>
+          <t>LAST_EDITED</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>OPT_NAME</t>
+          <t>LAST_EDITED</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>대상 옵션의 이름 - 복합 기본키 + 복합 외래키</t>
+          <t>마지막 수정 시간 - 트리거 있음 (옵션의 변경에 대해서는 트리거가 안되어있음. 필요하면 만들 수 있을듯)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
         </is>
       </c>
       <c r="G100" s="1" t="n">
-        <v>50.0</v>
+        <v>7.0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -5194,17 +5186,13 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J100"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K100"/>
       <c r="L100" s="1" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
@@ -5215,34 +5203,36 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SALE_OPT_CATEGORY</t>
+          <t>SALE</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SALE_IDX</t>
+          <t>WRITTEN_TIME</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SALE_IDX</t>
+          <t>WRITTEN_TIME</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>대상 옵션의 판매글 번호 - 복합 기본키 + 복합 외래키</t>
+          <t>글 쓴 시간 - 트리거 있음</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
         </is>
       </c>
       <c r="G101" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H101" s="1" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -5263,36 +5253,34 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER</t>
+          <t>SALE</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>WRITTEN_TIME</t>
+          <t>HIT</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>WRITTEN_TIME</t>
+          <t>HIT</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>작성 시각 - null 안됨, 기본값: 시스템 시각</t>
+          <t>조회수 처리용</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G102" s="1" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>8.0</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -5301,7 +5289,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t xml:space="preserve">SYSTIMESTAMP </t>
+          <t xml:space="preserve">0 </t>
         </is>
       </c>
       <c r="K102"/>
@@ -5317,49 +5305,50 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER</t>
+          <t>SALE</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>VIEW_COUNT</t>
+          <t>ORIGIN</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>VIEW_COUNT</t>
+          <t>ORIGIN</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>조회수</t>
+          <t>원산지. - null안됨</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G103" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H103" s="1" t="n">
-        <v>9.0</v>
+        <v>120.0</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0
-	</t>
-        </is>
-      </c>
-      <c r="K103"/>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J103"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L103" s="1" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="104">
@@ -5370,31 +5359,31 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER</t>
+          <t>SALE</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>LAST_EDITED</t>
+          <t>TITLE</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LAST_EDITED</t>
+          <t>TITLE</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>마지막 수정시각 - 트리거 없음. 글내용의 data type 이 clob 라서 update 관련 트리거가 안됨</t>
+          <t>판매글제목 - null 안됨</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G104" s="1" t="n">
-        <v>7.0</v>
+        <v>80.0</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -5403,13 +5392,17 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J104"/>
-      <c r="K104"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L104" s="1" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="105">
@@ -5420,48 +5413,42 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER</t>
+          <t>SALE</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CONTENT</t>
+          <t>ACC_IDX</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>CONTENT</t>
+          <t>ACC_IDX</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>내용 - 각종html 을 넣다보면 매우 길어질 거라 생각해서 nclob. 대신 문자열로 바꾸기 위해서 to_nclob 함수 이용. 불편하고 쓸데없다 싶으면 nvarchar2 로 변경</t>
+          <t>판매글 올린이 idx - 외래키 null안됨 : 식별관계</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>NCLOB</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G105" s="1" t="n">
-        <v>4000.0</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>8.0</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J105"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K105"/>
       <c r="L105" s="1" t="n">
         <v>0.0</v>
       </c>
@@ -5474,50 +5461,48 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER</t>
+          <t>SALE</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>ISDEL</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>TITLE</t>
+          <t>ISDEL</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>제목 - null 안됨</t>
+          <t>삭제 확인 코드 - 외래키, 기본값:0, null안됨</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G106" s="1" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H106" s="1" t="n">
+        <v>1.0</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J106"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="K106"/>
       <c r="L106" s="1" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="107">
@@ -5528,22 +5513,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER</t>
+          <t>SALE</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ACC_IDX</t>
+          <t>IDX</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ACC_IDX</t>
+          <t>IDX</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>계정 번호- 기본키 + 외래키 (계정.계정번호) = 1:1. 계정타입에 대한 규칙은 application에서 관리하기</t>
+          <t>판매글 번호 - 기본키 인조식별자. 트리거 있음</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5555,7 +5540,7 @@
         <v>22.0</v>
       </c>
       <c r="H107" s="1" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -5576,22 +5561,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER</t>
+          <t>SALE</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>IMG</t>
+          <t>FACE_IMG</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>IMG</t>
+          <t>FACE_IMG</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>이미지 위치(경로+파일이름 전부) 저장. 원래이름은 필요 없음, 아마도.</t>
+          <t>대표이지미 파일 위치 (디렉토리와 이름을 모두 포함해서 저장하기, 원래이름은 필요없음)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5600,7 +5585,7 @@
         </is>
       </c>
       <c r="G108" s="1" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -5619,7 +5604,7 @@
         </is>
       </c>
       <c r="L108" s="1" t="n">
-        <v>100.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="109">
@@ -5630,48 +5615,50 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER</t>
+          <t>SALE</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ISDEL</t>
+          <t>MAIN_IMG</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ISDEL</t>
+          <t>MAIN_IMG</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>삭제 확인 코드 - 외래키, 기본값:0, null안됨</t>
+          <t>본문이미지 파일 위치 (디렉토리와 이름을 모두 포함해서 저장하기, 원래이름은 필요없음)</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>VARCHAR2</t>
         </is>
       </c>
       <c r="G109" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H109" s="1" t="n">
-        <v>1.0</v>
+        <v>800.0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0 </t>
-        </is>
-      </c>
-      <c r="K109"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J109"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>CHAR_CS</t>
+        </is>
+      </c>
       <c r="L109" s="1" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
     </row>
     <row r="110">
@@ -5682,40 +5669,38 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER_COMMENT</t>
+          <t>SALE_HIT</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>LAST_EDITED</t>
+          <t>SALE_IDX</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LAST_EDITED</t>
+          <t>SALE_IDX</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>마지막 수정 시각 - 트리거 있음</t>
+          <t>판매글번호 - 복합기본키 + 외래키</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G110" s="1" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H110" s="1" t="n">
+        <v>10.0</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J110"/>
@@ -5732,36 +5717,34 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER_COMMENT</t>
+          <t>SALE_HIT</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>WRITTEN_TIME</t>
+          <t>ACCOUNT_IDX</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>WRITTEN_TIME</t>
+          <t>ACCOUNT_IDX</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>작성시각 - null안됨, 트리거있음</t>
+          <t>계정번호 - 복합기본키 + 외래키</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="G111" s="1" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>22.0</v>
+      </c>
+      <c r="H111" s="1" t="n">
+        <v>8.0</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -5782,31 +5765,31 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER_COMMENT</t>
+          <t>SALE_INQUIRE</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CONTENT</t>
+          <t>ANSWER_TIME</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CONTENT</t>
+          <t>ANSWER_TIME</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>글내용</t>
+          <t>응답 시각 - 트리거 있음</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>NVARCHAR2</t>
+          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
         </is>
       </c>
       <c r="G112" s="1" t="n">
-        <v>800.0</v>
+        <v>7.0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -5815,17 +5798,13 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J112"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>NCHAR_CS</t>
-        </is>
-      </c>
+      <c r="K112"/>
       <c r="L112" s="1" t="n">
-        <v>400.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="113">
@@ -5836,44 +5815,50 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER_COMMENT</t>
+          <t>SALE_INQUIRE</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>WRITER_IDX</t>
+          <t>ANSWER</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>WRITER_IDX</t>
+          <t>ANSWER</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>글쓴이 - 외래키 null안됨</t>
+          <t>응답 - 당연히 해당 글이 속한 판매글의 판매자 만이 응답 가능하게 해야 함.</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G113" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H113" s="1" t="n">
-        <v>8.0</v>
+        <v>4000.0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J113"/>
-      <c r="K113"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L113" s="1" t="n">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="114">
@@ -5884,34 +5869,36 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER_COMMENT</t>
+          <t>SALE_INQUIRE</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER_IDX</t>
+          <t>WRITTEN_TIME</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER_IDX</t>
+          <t>WRITTEN_TIME</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>오늘의 농부 글번호 - 외래키. null 안됨</t>
+          <t>글 쓴 시각 - null 안됨. 트리거 있음</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
         </is>
       </c>
       <c r="G114" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H114" s="1" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -5932,44 +5919,50 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER_COMMENT</t>
+          <t>SALE_INQUIRE</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>IDX</t>
+          <t>CONTENT</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>IDX</t>
+          <t>CONTENT</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>오늘의 농부 댓글번호 - 기본키, 인조식별자</t>
+          <t>내용</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G115" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H115" s="1" t="n">
-        <v>10.0</v>
+        <v>4000.0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="J115"/>
-      <c r="K115"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L115" s="1" t="n">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="116">
@@ -5980,44 +5973,50 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER_COMMENT</t>
+          <t>SALE_INQUIRE</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SUPER_COMMENT</t>
+          <t>TITLE</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>SUPER_COMMENT</t>
+          <t>TITLE</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>상위 댓글 - 대댓글용, 안써도 작동에 문제 없음</t>
+          <t>제목 - null 안됨</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NVARCHAR2</t>
         </is>
       </c>
       <c r="G116" s="1" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H116" s="1" t="n">
-        <v>10.0</v>
+        <v>80.0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="J116"/>
-      <c r="K116"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
       <c r="L116" s="1" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="117">
@@ -6028,22 +6027,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TODAYS_FARMER_COMMENT</t>
+          <t>SALE_INQUIRE</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ISDEL</t>
+          <t>WRITER_IDX</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ISDEL</t>
+          <t>WRITER_IDX</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>삭제 확인 코드 - 외래키, 기본값:0, null안됨</t>
+          <t>글쓴이 - 외래키 (계정.IDX). null 안됨</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6055,20 +6054,2190 @@
         <v>22.0</v>
       </c>
       <c r="H117" s="1" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0 </t>
-        </is>
-      </c>
+      <c r="J117"/>
       <c r="K117"/>
       <c r="L117" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>SALE_INQUIRE</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>SALE_IDX</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>SALE_IDX</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>대상 판매글 - 외래키 (판매글.IDX). null 안됨</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G118" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H118" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>SALE_INQUIRE</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>IDX</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>IDX</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>판매 문의 번호 - 인조식별자, 기본키</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G119" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H119" s="1" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SALE_INQUIRE</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ISDEL</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>ISDEL</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>삭제 확인 코드 - 외래키, 기본값:0, null안됨</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G120" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H120" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="K120"/>
+      <c r="L120" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>SALE_OPTION</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>SALE_IDX</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>SALE_IDX</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>판매글 번호 - 복합기본키 + 외래키 판매글번호 참조 : 식별관계</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G121" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H121" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>SALE_OPTION</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>판매 옵션 이름 - 복합기본키 : 같은 판매글에 같은 이름의 옵션 불허 - 만약 허용하려면 인조식별자 쓰기</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>NVARCHAR2</t>
+        </is>
+      </c>
+      <c r="G122" s="1" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J122"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
+      <c r="L122" s="1" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SALE_OPTION</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ISDEL</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>ISDEL</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>삭제 확인 코드 - 외래키, 기본값:0, null안됨</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G123" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H123" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="K123"/>
+      <c r="L123" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>SALE_OPTION</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>LAST_EDITED</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>LAST_EDITED</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>해당 옵션 내용이 마지막으로 수정된 시각 - 트리거 있음</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+        </is>
+      </c>
+      <c r="G124" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>SALE_OPTION</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>WRITTEN_TIME</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>WRITTEN_TIME</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>해당 옵션을 등록한 시각 - 트리거 있음</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+        </is>
+      </c>
+      <c r="G125" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>SALE_OPTION</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>LASTSOLD_TIME</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>LASTSOLD_TIME</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>마지막으로 해당 옵션이 팔린 시각</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+        </is>
+      </c>
+      <c r="G126" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>SALE_OPTION</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>LEFT_AMOUNT</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>LEFT_AMOUNT</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>판매 옵션 남은 개수 - null안됨 0이상</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G127" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H127" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>SALE_OPTION</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>START_AMOUNT</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>START_AMOUNT</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>판매 옵션 시작 개수 - null안됨 0초과</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G128" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H128" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>SALE_OPTION</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>UNIT</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>UNIT</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>판매 옵션 (개수당)단위 - null안됨</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>NVARCHAR2</t>
+        </is>
+      </c>
+      <c r="G129" s="1" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J129"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
+      <c r="L129" s="1" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>SALE_OPTION</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>PRICE</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>PRICE</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>판매 옵션 가격 - null안됨 0초과.</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G130" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H130" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>SALE_OPTION</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>판매 옵션 설명</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>NVARCHAR2</t>
+        </is>
+      </c>
+      <c r="G131" s="1" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J131"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
+      <c r="L131" s="1" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>SALE_OPT_CATEGORY</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>SALE_IDX</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>SALE_IDX</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>대상 옵션의 판매글 번호 - 복합 기본키 + 복합 외래키</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G132" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H132" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>SALE_OPT_CATEGORY</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>OPT_NAME</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>OPT_NAME</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>대상 옵션의 이름 - 복합 기본키 + 복합 외래키</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>NVARCHAR2</t>
+        </is>
+      </c>
+      <c r="G133" s="1" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J133"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
+      <c r="L133" s="1" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SALE_OPT_CATEGORY</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>CATEGORY_IDX</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CATEGORY_IDX</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>카테고리 - 복합 기본키 + 외래키</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G134" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H134" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>SITE_IMG_SETTING</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>IMG_LOCATION</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>IMG_LOCATION</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>이미지 위치(경로 + 파일이름) 원래 이름은 쓸데 없을듯, UUID 사용하기</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="G135" s="1" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J135"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>CHAR_CS</t>
+        </is>
+      </c>
+      <c r="L135" s="1" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>SITE_IMG_SETTING</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>IDX</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>IDX</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>이미지 번호</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G136" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H136" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>SITE_IMG_SETTING</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>TYPE_CODE</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>TYPE_CODE</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>이미지 타입</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G137" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H137" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>SITE_IMG_TYPE</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>DESCRIPTION</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>사이트 이미지 타입 설명</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>NVARCHAR2</t>
+        </is>
+      </c>
+      <c r="G138" s="1" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J138"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
+      <c r="L138" s="1" t="n">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>SITE_IMG_TYPE</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>CODE</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>사이트 이미지 타입 코드. 예) 1:배너</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G139" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H139" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>SITE_IMG_TYPE</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>사이트 이미지 타입 이름</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>NVARCHAR2</t>
+        </is>
+      </c>
+      <c r="G140" s="1" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J140"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
+      <c r="L140" s="1" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>SITE_MAIN_AUCTION</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>AUCTION_IDX</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>AUCTION_IDX</t>
+        </is>
+      </c>
+      <c r="E141"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G141" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H141" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>SITE_MAIN_AUCTION</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>REG_TIME</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>REG_TIME</t>
+        </is>
+      </c>
+      <c r="E142"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>TIMESTAMP(0)</t>
+        </is>
+      </c>
+      <c r="G142" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SYSTIMESTAMP
+	</t>
+        </is>
+      </c>
+      <c r="K142"/>
+      <c r="L142" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>ACC_IDX</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>ACC_IDX</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>계정 번호- 기본키 + 외래키 (계정.계정번호) = 1:1. 계정타입에 대한 규칙은 application에서 관리하기</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G143" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H143" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>제목 - null 안됨</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>NVARCHAR2</t>
+        </is>
+      </c>
+      <c r="G144" s="1" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J144"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
+      <c r="L144" s="1" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ISDEL</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>ISDEL</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>삭제 확인 코드 - 외래키, 기본값:0, null안됨</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G145" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H145" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="K145"/>
+      <c r="L145" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>MAIN_IMG</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>MAIN_IMG</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>주 이미지 위치(경로+파일이름 전부) 저장. 원래이름은 필요 없음, 아마도.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="G146" s="1" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J146"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>CHAR_CS</t>
+        </is>
+      </c>
+      <c r="L146" s="1" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>THUMB_IMG</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>THUMB_IMG</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>썸네일 이미지 위치(경로+파일이름 전부) 저장. 원래이름은 필요 없음, 아마도.</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>VARCHAR2</t>
+        </is>
+      </c>
+      <c r="G147" s="1" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J147"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>CHAR_CS</t>
+        </is>
+      </c>
+      <c r="L147" s="1" t="n">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>LAST_EDITED</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>LAST_EDITED</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>마지막 수정시각 - 트리거 없음. 글내용의 data type 이 clob 라서 update 관련 트리거가 안됨</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+        </is>
+      </c>
+      <c r="G148" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>VIEW_COUNT</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>VIEW_COUNT</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>조회수</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G149" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H149" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0
+	</t>
+        </is>
+      </c>
+      <c r="K149"/>
+      <c r="L149" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>WRITTEN_TIME</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>WRITTEN_TIME</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>작성 시각 - null 안됨, 기본값: 시스템 시각</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+        </is>
+      </c>
+      <c r="G150" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SYSTIMESTAMP </t>
+        </is>
+      </c>
+      <c r="K150"/>
+      <c r="L150" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>CONTENT</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>CONTENT</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>내용 - 각종html 을 넣다보면 매우 길어질 거라 생각해서 nclob. 대신 문자열로 바꾸기 위해서 to_nclob 함수 이용. 불편하고 쓸데없다 싶으면 nvarchar2 로 변경</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>NVARCHAR2</t>
+        </is>
+      </c>
+      <c r="G151" s="1" t="n">
+        <v>4000.0</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J151"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
+      <c r="L151" s="1" t="n">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER_COMMENT</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>IDX</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>IDX</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>오늘의 농부 댓글번호 - 기본키, 인조식별자</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G152" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H152" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER_COMMENT</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ISDEL</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>ISDEL</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>삭제 확인 코드 - 외래키, 기본값:0, null안됨</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G153" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H153" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0 </t>
+        </is>
+      </c>
+      <c r="K153"/>
+      <c r="L153" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER_COMMENT</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>SUPER_COMMENT</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>SUPER_COMMENT</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>상위 댓글 - 대댓글용, 안써도 작동에 문제 없음</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G154" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H154" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER_COMMENT</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>LAST_EDITED</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>LAST_EDITED</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>마지막 수정 시각 - 트리거 있음</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+        </is>
+      </c>
+      <c r="G155" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER_COMMENT</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>WRITTEN_TIME</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>WRITTEN_TIME</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>작성시각 - null안됨, 트리거있음</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>TIMESTAMP(0) WITH LOCAL TIME ZONE</t>
+        </is>
+      </c>
+      <c r="G156" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J156"/>
+      <c r="K156"/>
+      <c r="L156" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER_COMMENT</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>CONTENT</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>CONTENT</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>글내용</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>NVARCHAR2</t>
+        </is>
+      </c>
+      <c r="G157" s="1" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J157"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>NCHAR_CS</t>
+        </is>
+      </c>
+      <c r="L157" s="1" t="n">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER_COMMENT</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>WRITER_IDX</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>WRITER_IDX</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>글쓴이 - 외래키 null안됨</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G158" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H158" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J158"/>
+      <c r="K158"/>
+      <c r="L158" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER_COMMENT</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER_IDX</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER_IDX</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>오늘의 농부 글번호 - 외래키. null 안됨</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G159" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H159" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J159"/>
+      <c r="K159"/>
+      <c r="L159" s="1" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>COCOFARM</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>TODAYS_FARMER_PICK</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>FARM_ACC_IDX</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>FARM_ACC_IDX</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>선택된 오늘의 농부 - 기본키 + 외래키 (오늘의 농부 기본키)</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>NUMBER</t>
+        </is>
+      </c>
+      <c r="G160" s="1" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H160" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J160"/>
+      <c r="K160"/>
+      <c r="L160" s="1" t="n">
         <v>0.0</v>
       </c>
     </row>
